--- a/html/resources/1condition/mainTrials4.xlsx
+++ b/html/resources/1condition/mainTrials4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Documents/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E8451-CA92-1C4E-AD9D-2BE2CA6DA6A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F072B2B4-893A-6A44-924D-AC720F1215AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16520" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="4280" windowWidth="19320" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -846,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -879,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
